--- a/doc/SomaLogic.xlsx
+++ b/doc/SomaLogic.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SomaLogic\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76D93E7A-ADD9-444D-AD83-45194771FAA2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4275" yWindow="465" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4272" yWindow="468" windowWidth="38400" windowHeight="19860" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="1" r:id="rId1"/>
     <sheet name="information" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="152">
   <si>
     <t>IMPROVE</t>
   </si>
@@ -426,18 +427,6 @@
     <t>DATA ANALYSIS</t>
   </si>
   <si>
-    <t>Trait transformation FASTING GLUCOSE</t>
-  </si>
-  <si>
-    <t>Trait transformation FASTING INSULIN</t>
-  </si>
-  <si>
-    <t>Trait transformation 2 HOUR GLUCOSE</t>
-  </si>
-  <si>
-    <t>Trait transformation HBA1C</t>
-  </si>
-  <si>
     <t>Adjustments</t>
   </si>
   <si>
@@ -493,12 +482,15 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Trait transformation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -648,7 +640,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -936,21 +928,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -962,7 +939,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1149,25 +1126,19 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 3" xfId="3"/>
-    <cellStyle name="Normal 8" xfId="4"/>
-    <cellStyle name="Normal_GIANT_Tables_eks82908_cjw82908_eks83008" xfId="2"/>
+    <cellStyle name="Normal 2 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 8" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_GIANT_Tables_eks82908_cjw82908_eks83008" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1444,29 +1415,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.875" customWidth="1"/>
-    <col min="2" max="2" width="37.125" customWidth="1"/>
+    <col min="1" max="1" width="20.8984375" customWidth="1"/>
+    <col min="2" max="2" width="37.09765625" customWidth="1"/>
     <col min="3" max="3" width="30.5" customWidth="1"/>
-    <col min="4" max="4" width="14.125" customWidth="1"/>
-    <col min="5" max="5" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="14.09765625" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" customWidth="1"/>
     <col min="6" max="6" width="28" customWidth="1"/>
-    <col min="7" max="7" width="15.125" customWidth="1"/>
-    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="15.09765625" customWidth="1"/>
+    <col min="8" max="8" width="9.8984375" customWidth="1"/>
     <col min="9" max="9" width="25" customWidth="1"/>
-    <col min="10" max="10" width="16.375" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" customWidth="1"/>
     <col min="11" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1507,7 +1478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1533,7 +1504,7 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1574,7 +1545,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1606,7 +1577,7 @@
       </c>
       <c r="L4" s="14"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1622,7 +1593,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -1663,7 +1634,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1702,7 +1673,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>5</v>
       </c>
@@ -1718,7 +1689,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1734,7 +1705,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>65</v>
       </c>
@@ -1768,7 +1739,7 @@
       </c>
       <c r="L10" s="14"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>47</v>
       </c>
@@ -1802,7 +1773,7 @@
       </c>
       <c r="L11" s="14"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1789,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>8</v>
       </c>
@@ -1859,7 +1830,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>9</v>
       </c>
@@ -1875,7 +1846,7 @@
       <c r="K14" s="5"/>
       <c r="L14" s="5"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>10</v>
       </c>
@@ -1916,7 +1887,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>11</v>
       </c>
@@ -1932,7 +1903,7 @@
       <c r="K16" s="5"/>
       <c r="L16" s="5"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>12</v>
       </c>
@@ -1966,7 +1937,7 @@
       </c>
       <c r="L17" s="14"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>13</v>
       </c>
@@ -1982,7 +1953,7 @@
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>14</v>
       </c>
@@ -1998,7 +1969,7 @@
       <c r="K19" s="5"/>
       <c r="L19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -2039,7 +2010,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>16</v>
       </c>
@@ -2080,7 +2051,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>17</v>
       </c>
@@ -2104,7 +2075,7 @@
         <v>11086</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>18</v>
       </c>
@@ -2126,26 +2097,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.375" customWidth="1"/>
+    <col min="1" max="1" width="32.3984375" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="15"/>
       <c r="B1" s="16"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="17"/>
       <c r="B2" s="17" t="s">
         <v>96</v>
@@ -2154,28 +2125,28 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="17"/>
       <c r="B3" s="17" t="s">
         <v>97</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="17"/>
       <c r="B4" s="17" t="s">
         <v>98</v>
       </c>
       <c r="C4" s="19"/>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="17"/>
       <c r="B5" s="17"/>
       <c r="C5" s="20"/>
     </row>
-    <row r="6" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>99</v>
       </c>
@@ -2184,7 +2155,7 @@
       </c>
       <c r="C6" s="23"/>
     </row>
-    <row r="7" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="24"/>
       <c r="B7" s="22" t="s">
         <v>101</v>
@@ -2193,16 +2164,16 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="24"/>
       <c r="B8" s="22" t="s">
         <v>103</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="24"/>
       <c r="B9" s="27" t="s">
         <v>104</v>
@@ -2211,7 +2182,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="30"/>
       <c r="B10" s="31" t="s">
         <v>106</v>
@@ -2220,7 +2191,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="72" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A11" s="21" t="s">
         <v>108</v>
       </c>
@@ -2228,33 +2199,33 @@
         <v>109</v>
       </c>
       <c r="C11" s="35" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="36" x14ac:dyDescent="0.3">
       <c r="A12" s="24"/>
       <c r="B12" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C12" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="24"/>
       <c r="B13" s="27" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="37"/>
     </row>
-    <row r="14" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="30"/>
       <c r="B14" s="31" t="s">
         <v>112</v>
       </c>
       <c r="C14" s="39"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="21" t="s">
         <v>113</v>
       </c>
@@ -2263,35 +2234,35 @@
       </c>
       <c r="C15" s="41"/>
     </row>
-    <row r="16" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="24"/>
       <c r="B16" s="27" t="s">
         <v>115</v>
       </c>
       <c r="C16" s="42"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="24"/>
       <c r="B17" s="44" t="s">
         <v>116</v>
       </c>
       <c r="C17" s="45"/>
     </row>
-    <row r="18" spans="1:3" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="30"/>
       <c r="B18" s="31" t="s">
         <v>117</v>
       </c>
       <c r="C18" s="46"/>
     </row>
-    <row r="19" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="47"/>
       <c r="B19" s="47" t="s">
         <v>118</v>
       </c>
       <c r="C19" s="48"/>
     </row>
-    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A20" s="21" t="s">
         <v>119</v>
       </c>
@@ -2300,35 +2271,35 @@
       </c>
       <c r="C20" s="49"/>
     </row>
-    <row r="21" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A21" s="24"/>
       <c r="B21" s="27" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="50"/>
     </row>
-    <row r="22" spans="1:3" ht="48" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" ht="24" x14ac:dyDescent="0.3">
       <c r="A22" s="24"/>
       <c r="B22" s="27" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="50"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="24"/>
       <c r="B23" s="51" t="s">
         <v>123</v>
       </c>
       <c r="C23" s="38"/>
     </row>
-    <row r="24" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="30"/>
       <c r="B24" s="52" t="s">
         <v>124</v>
       </c>
       <c r="C24" s="53"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
         <v>125</v>
       </c>
@@ -2337,257 +2308,180 @@
       </c>
       <c r="C25" s="53"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="24"/>
       <c r="B26" s="52" t="s">
         <v>127</v>
       </c>
       <c r="C26" s="53"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="24"/>
       <c r="B27" s="52" t="s">
         <v>128</v>
       </c>
       <c r="C27" s="53"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="24"/>
       <c r="B28" s="52"/>
       <c r="C28" s="53"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="24"/>
       <c r="B29" s="52" t="s">
         <v>129</v>
       </c>
       <c r="C29" s="53"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="24"/>
       <c r="B30" s="52" t="s">
         <v>130</v>
       </c>
       <c r="C30" s="53"/>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="30"/>
       <c r="B31" s="31"/>
       <c r="C31" s="54"/>
     </row>
-    <row r="32" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="21" t="s">
         <v>131</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="C32" s="55"/>
     </row>
-    <row r="33" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="24"/>
       <c r="B33" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C33" s="29"/>
     </row>
-    <row r="34" spans="1:3" ht="24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="24"/>
       <c r="B34" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="29"/>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="57"/>
+      <c r="B35" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="C34" s="55"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="24"/>
-      <c r="B35" s="27" t="s">
+      <c r="C35" s="29"/>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="55"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="24"/>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="C36" s="29"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24"/>
-      <c r="B37" s="27" t="s">
+      <c r="C36" s="59"/>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="30"/>
+      <c r="B37" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C37" s="29"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="27" t="s">
+      <c r="C37" s="60"/>
+    </row>
+    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="62" t="s">
         <v>138</v>
       </c>
-      <c r="C38" s="29"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="58" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="65" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="65"/>
+      <c r="C39" s="66"/>
+    </row>
+    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="62"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="64"/>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="59"/>
-    </row>
-    <row r="40" spans="1:3" ht="24.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31" t="s">
+      <c r="B41" s="40" t="s">
         <v>141</v>
       </c>
-      <c r="C40" s="60"/>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="62" t="s">
+      <c r="C41" s="67"/>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="24"/>
+      <c r="B42" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-    </row>
-    <row r="42" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="65" t="s">
+      <c r="C42" s="68"/>
+    </row>
+    <row r="43" spans="1:3" ht="36" x14ac:dyDescent="0.3">
+      <c r="A43" s="24"/>
+      <c r="B43" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B42" s="65"/>
-      <c r="C42" s="66"/>
-    </row>
-    <row r="43" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="62"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="64"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
+      <c r="C43" s="56"/>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="24"/>
+      <c r="B44" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="C44" s="43"/>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="24"/>
+      <c r="B45" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="C44" s="67"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24"/>
-      <c r="B45" s="22" t="s">
+      <c r="C45" s="38"/>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="24"/>
+      <c r="B46" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="69"/>
-    </row>
-    <row r="46" spans="1:3" ht="36" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="C46" s="56"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C46" s="28"/>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" s="24"/>
       <c r="B47" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="25"/>
+    </row>
+    <row r="48" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="30"/>
+      <c r="B48" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="C47" s="43"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="24"/>
-      <c r="B48" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C48" s="38"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C48" s="61"/>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" s="24"/>
       <c r="B49" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C49" s="28"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="24"/>
-      <c r="B50" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C50" s="25"/>
-    </row>
-    <row r="51" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30"/>
-      <c r="B51" s="31" t="s">
-        <v>152</v>
-      </c>
-      <c r="C51" s="61"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="24"/>
-      <c r="B52" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C52" s="70"/>
-    </row>
-    <row r="53" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30"/>
-      <c r="B53" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="C49" s="69"/>
+    </row>
+    <row r="50" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="30"/>
+      <c r="B50" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="C53" s="33"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="40" t="s">
-        <v>145</v>
-      </c>
-      <c r="C54" s="68"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="24"/>
-      <c r="B55" s="22" t="s">
-        <v>146</v>
-      </c>
-      <c r="C55" s="56"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="24"/>
-      <c r="B56" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="56"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24"/>
-      <c r="B57" s="27" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="56"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="24"/>
-      <c r="B58" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="C58" s="43"/>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24"/>
-      <c r="B59" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="C59" s="71"/>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="24"/>
-      <c r="B60" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C60" s="70"/>
-    </row>
-    <row r="61" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30"/>
-      <c r="B61" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C61" s="33"/>
+      <c r="C50" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
